--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kendricknguyen/Desktop/60-keeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6203ED-BF83-2D40-B27B-0E760DD75181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F215B7C-75D4-FE43-9612-B33BE5454A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{DA0D4D46-70F2-4441-BC72-2E0C38AC885E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Digikey</t>
   </si>
@@ -147,37 +147,10 @@
     <t>https://www.digikey.com/en/products/detail/ecs-inc/ECS-160-12-33-AGN-TR/9648827</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/USB4085-GF-A/2073-USB4085-GF-ACT-ND/9859733?curr=usd&amp;utm_campaign=buynow&amp;utm_medium=aggregator&amp;utm_source=octopart</t>
-  </si>
-  <si>
-    <t>USB4085-GF-A</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/te-connectivity-passive-product/CRG0805F5K1/2380921</t>
-  </si>
-  <si>
-    <t>CRG0805F5K1</t>
-  </si>
-  <si>
-    <t>5.1k Resistor</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/nexperia-usa-inc/PRTR5V0U2X-215/1163690</t>
-  </si>
-  <si>
-    <t>Diode IC</t>
-  </si>
-  <si>
-    <t>500mA Fuse</t>
-  </si>
-  <si>
-    <t>PRTR5V0U2X,215</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/bel-fuse-inc/0686F0500-01/7427694</t>
-  </si>
-  <si>
-    <t>0686F0500-01</t>
+    <t>https://www.digikey.com/en/products/detail/edac-inc/690-005-299-043/4312191</t>
+  </si>
+  <si>
+    <t>690-005-299-043</t>
   </si>
 </sst>
 </file>
@@ -551,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753A07AF-D934-AF4F-9C87-9D137DF1B05F}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -769,55 +742,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E16" s="1"/>
@@ -834,11 +765,8 @@
     <hyperlink ref="E8" r:id="rId5" xr:uid="{F74BE918-466B-564D-9478-CF1A1CE821C2}"/>
     <hyperlink ref="E9" r:id="rId6" xr:uid="{5B219B69-0052-634B-A237-A76ED434CD08}"/>
     <hyperlink ref="E10" r:id="rId7" xr:uid="{14196E2C-AE65-BC46-A4F0-E5C9D91DFEFA}"/>
-    <hyperlink ref="E11" r:id="rId8" xr:uid="{30E8F0BF-A355-B341-8AD4-92AB541FF353}"/>
-    <hyperlink ref="E12" r:id="rId9" xr:uid="{56B675DC-CD6E-B84E-94D4-98677FD30E4E}"/>
-    <hyperlink ref="E13" r:id="rId10" xr:uid="{9E1B7928-FD1C-034E-AC0E-59342A144A8E}"/>
-    <hyperlink ref="E15" r:id="rId11" xr:uid="{B6DCEA19-73C5-B04A-9552-0A690D6DB57C}"/>
-    <hyperlink ref="E14" r:id="rId12" xr:uid="{0C059722-97CE-EA43-A737-B60C32DD9E6C}"/>
+    <hyperlink ref="E12" r:id="rId8" xr:uid="{56B675DC-CD6E-B84E-94D4-98677FD30E4E}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{B12E599A-7398-1E4A-BC2C-EB67AE30F32B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
